--- a/焦煤/eta/焦煤上游总库存_合并数据.xlsx
+++ b/焦煤/eta/焦煤上游总库存_合并数据.xlsx
@@ -502,7 +502,9 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>960.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -511,7 +513,9 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>969.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -520,7 +524,9 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>969</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -529,7 +535,9 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>979.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -538,7 +546,9 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>977.8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -548,7 +558,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>885.6</v>
+        <v>960.6</v>
       </c>
     </row>
     <row r="13">
@@ -559,7 +569,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>874.4</v>
+        <v>950.7</v>
       </c>
     </row>
     <row r="14">
@@ -570,7 +580,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>873.4</v>
+        <v>947.6</v>
       </c>
     </row>
     <row r="15">
@@ -581,7 +591,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>878.5</v>
+        <v>948.7</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +602,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>883.8</v>
+        <v>955.9</v>
       </c>
     </row>
     <row r="17">
@@ -603,7 +613,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>869.2</v>
+        <v>939.6</v>
       </c>
     </row>
     <row r="18">
@@ -614,7 +624,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>879.6</v>
+        <v>950.6</v>
       </c>
     </row>
     <row r="19">
@@ -625,7 +635,7 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>876.3</v>
+        <v>953</v>
       </c>
     </row>
     <row r="20">
@@ -636,7 +646,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>869.2</v>
+        <v>941.6</v>
       </c>
     </row>
     <row r="21">
@@ -647,7 +657,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>868.1</v>
+        <v>940.8</v>
       </c>
     </row>
     <row r="22">
@@ -657,7 +667,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>854.942</v>
+        <v>870.6420000000001</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
@@ -668,7 +678,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>875.184</v>
+        <v>890.884</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
